--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H2">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.3125770825127</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N2">
-        <v>2.3125770825127</v>
+        <v>0.03094</v>
       </c>
       <c r="O2">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P2">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q2">
-        <v>12.06341336259804</v>
+        <v>0.01476816391555556</v>
       </c>
       <c r="R2">
-        <v>12.06341336259804</v>
+        <v>0.13291347524</v>
       </c>
       <c r="S2">
-        <v>0.3291665924677826</v>
+        <v>0.0003080330512068506</v>
       </c>
       <c r="T2">
-        <v>0.3291665924677826</v>
+        <v>0.0003080330512068506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H3">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.234080381259994</v>
+        <v>2.346137</v>
       </c>
       <c r="N3">
-        <v>0.234080381259994</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O3">
-        <v>0.09191671223550434</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="P3">
-        <v>0.09191671223550434</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="Q3">
-        <v>1.221065633040731</v>
+        <v>3.359547748967334</v>
       </c>
       <c r="R3">
-        <v>1.221065633040731</v>
+        <v>30.23592974070601</v>
       </c>
       <c r="S3">
-        <v>0.03331843165166733</v>
+        <v>0.07007314854485652</v>
       </c>
       <c r="T3">
-        <v>0.03331843165166733</v>
+        <v>0.07007314854485652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.39667074056383</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H4">
-        <v>1.39667074056383</v>
+        <v>4.295846</v>
       </c>
       <c r="I4">
-        <v>0.09705325637670185</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J4">
-        <v>0.09705325637670185</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.3125770825127</v>
+        <v>0.2414023333333334</v>
       </c>
       <c r="N4">
-        <v>2.3125770825127</v>
+        <v>0.724207</v>
       </c>
       <c r="O4">
-        <v>0.9080832877644958</v>
+        <v>0.09292379680756852</v>
       </c>
       <c r="P4">
-        <v>0.9080832877644958</v>
+        <v>0.0929237968075685</v>
       </c>
       <c r="Q4">
-        <v>3.229908746443954</v>
+        <v>0.3456757493468889</v>
       </c>
       <c r="R4">
-        <v>3.229908746443954</v>
+        <v>3.111081744122</v>
       </c>
       <c r="S4">
-        <v>0.08813244013880593</v>
+        <v>0.007210074076126686</v>
       </c>
       <c r="T4">
-        <v>0.08813244013880593</v>
+        <v>0.007210074076126685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H5">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I5">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J5">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.234080381259994</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N5">
-        <v>0.234080381259994</v>
+        <v>0.03094</v>
       </c>
       <c r="O5">
-        <v>0.09191671223550434</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P5">
-        <v>0.09191671223550434</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q5">
-        <v>0.3269332194458595</v>
+        <v>0.05396418663999999</v>
       </c>
       <c r="R5">
-        <v>0.3269332194458595</v>
+        <v>0.4856776797599999</v>
       </c>
       <c r="S5">
-        <v>0.00892081623789593</v>
+        <v>0.001125580211708386</v>
       </c>
       <c r="T5">
-        <v>0.00892081623789593</v>
+        <v>0.001125580211708385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2064799986053</v>
+        <v>5.232468</v>
       </c>
       <c r="H6">
-        <v>2.2064799986053</v>
+        <v>15.697404</v>
       </c>
       <c r="I6">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J6">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3125770825127</v>
+        <v>2.346137</v>
       </c>
       <c r="N6">
-        <v>2.3125770825127</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O6">
-        <v>0.9080832877644958</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="P6">
-        <v>0.9080832877644958</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="Q6">
-        <v>5.102655077797271</v>
+        <v>12.276086776116</v>
       </c>
       <c r="R6">
-        <v>5.102655077797271</v>
+        <v>110.484780985044</v>
       </c>
       <c r="S6">
-        <v>0.1392328633705397</v>
+        <v>0.2560535275847004</v>
       </c>
       <c r="T6">
-        <v>0.1392328633705397</v>
+        <v>0.2560535275847003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2064799986053</v>
+        <v>5.232468</v>
       </c>
       <c r="H7">
-        <v>2.2064799986053</v>
+        <v>15.697404</v>
       </c>
       <c r="I7">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J7">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.234080381259994</v>
+        <v>0.2414023333333334</v>
       </c>
       <c r="N7">
-        <v>0.234080381259994</v>
+        <v>0.724207</v>
       </c>
       <c r="O7">
-        <v>0.09191671223550434</v>
+        <v>0.09292379680756852</v>
       </c>
       <c r="P7">
-        <v>0.09191671223550434</v>
+        <v>0.0929237968075685</v>
       </c>
       <c r="Q7">
-        <v>0.5164936793160797</v>
+        <v>1.263129984292</v>
       </c>
       <c r="R7">
-        <v>0.5164936793160797</v>
+        <v>11.368169858628</v>
       </c>
       <c r="S7">
-        <v>0.01409323044327868</v>
+        <v>0.02634625301812201</v>
       </c>
       <c r="T7">
-        <v>0.01409323044327868</v>
+        <v>0.026346253018122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.57117835317614</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H8">
-        <v>5.57117835317614</v>
+        <v>5.50372</v>
       </c>
       <c r="I8">
-        <v>0.3871356256900297</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J8">
-        <v>0.3871356256900297</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.3125770825127</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N8">
-        <v>2.3125770825127</v>
+        <v>0.03094</v>
       </c>
       <c r="O8">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P8">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q8">
-        <v>12.88377938214598</v>
+        <v>0.01892056631111111</v>
       </c>
       <c r="R8">
-        <v>12.88377938214598</v>
+        <v>0.1702850968</v>
       </c>
       <c r="S8">
-        <v>0.3515513917873674</v>
+        <v>0.0003946434915469892</v>
       </c>
       <c r="T8">
-        <v>0.3515513917873674</v>
+        <v>0.0003946434915469892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.834573333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.50372</v>
+      </c>
+      <c r="I9">
+        <v>0.0994077873527463</v>
+      </c>
+      <c r="J9">
+        <v>0.09940778735274629</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.346137</v>
+      </c>
+      <c r="N9">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P9">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q9">
+        <v>4.304160376546666</v>
+      </c>
+      <c r="R9">
+        <v>38.73744338892</v>
+      </c>
+      <c r="S9">
+        <v>0.08977579482814274</v>
+      </c>
+      <c r="T9">
+        <v>0.08977579482814273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.834573333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.50372</v>
+      </c>
+      <c r="I10">
+        <v>0.0994077873527463</v>
+      </c>
+      <c r="J10">
+        <v>0.09940778735274629</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.724207</v>
+      </c>
+      <c r="O10">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P10">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q10">
+        <v>0.4428702833377778</v>
+      </c>
+      <c r="R10">
+        <v>3.98583255004</v>
+      </c>
+      <c r="S10">
+        <v>0.009237349033056577</v>
+      </c>
+      <c r="T10">
+        <v>0.009237349033056574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H11">
+        <v>7.12753</v>
+      </c>
+      <c r="I11">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J11">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.03094</v>
+      </c>
+      <c r="O11">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P11">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q11">
+        <v>0.02450286424444444</v>
+      </c>
+      <c r="R11">
+        <v>0.2205257782</v>
+      </c>
+      <c r="S11">
+        <v>0.0005110785660073392</v>
+      </c>
+      <c r="T11">
+        <v>0.0005110785660073391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H12">
+        <v>7.12753</v>
+      </c>
+      <c r="I12">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J12">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.346137</v>
+      </c>
+      <c r="N12">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P12">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q12">
+        <v>5.574053950536667</v>
+      </c>
+      <c r="R12">
+        <v>50.16648555483</v>
+      </c>
+      <c r="S12">
+        <v>0.1162631221994274</v>
+      </c>
+      <c r="T12">
+        <v>0.1162631221994273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H13">
+        <v>7.12753</v>
+      </c>
+      <c r="I13">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J13">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.724207</v>
+      </c>
+      <c r="O13">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P13">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q13">
+        <v>0.5735341243011112</v>
+      </c>
+      <c r="R13">
+        <v>5.161807118710001</v>
+      </c>
+      <c r="S13">
+        <v>0.01196272382199344</v>
+      </c>
+      <c r="T13">
+        <v>0.01196272382199344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.326571</v>
+      </c>
+      <c r="H14">
+        <v>3.979713</v>
+      </c>
+      <c r="I14">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J14">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.03094</v>
+      </c>
+      <c r="O14">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P14">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q14">
+        <v>0.01368136891333333</v>
+      </c>
+      <c r="R14">
+        <v>0.12313232022</v>
+      </c>
+      <c r="S14">
+        <v>0.0002853647775822432</v>
+      </c>
+      <c r="T14">
+        <v>0.0002853647775822432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.326571</v>
+      </c>
+      <c r="H15">
+        <v>3.979713</v>
+      </c>
+      <c r="I15">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J15">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.346137</v>
+      </c>
+      <c r="N15">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P15">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q15">
+        <v>3.112317306227001</v>
+      </c>
+      <c r="R15">
+        <v>28.01085575604301</v>
+      </c>
+      <c r="S15">
+        <v>0.06491643792978066</v>
+      </c>
+      <c r="T15">
+        <v>0.06491643792978066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="H9">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="I9">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="J9">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.234080381259994</v>
-      </c>
-      <c r="N9">
-        <v>0.234080381259994</v>
-      </c>
-      <c r="O9">
-        <v>0.09191671223550434</v>
-      </c>
-      <c r="P9">
-        <v>0.09191671223550434</v>
-      </c>
-      <c r="Q9">
-        <v>1.304103552978896</v>
-      </c>
-      <c r="R9">
-        <v>1.304103552978896</v>
-      </c>
-      <c r="S9">
-        <v>0.03558423390266238</v>
-      </c>
-      <c r="T9">
-        <v>0.03558423390266238</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.326571</v>
+      </c>
+      <c r="H16">
+        <v>3.979713</v>
+      </c>
+      <c r="I16">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J16">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.724207</v>
+      </c>
+      <c r="O16">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P16">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q16">
+        <v>0.3202373347323334</v>
+      </c>
+      <c r="R16">
+        <v>2.882136012591</v>
+      </c>
+      <c r="S16">
+        <v>0.006679481883597402</v>
+      </c>
+      <c r="T16">
+        <v>0.006679481883597401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.253622</v>
+      </c>
+      <c r="H17">
+        <v>18.760866</v>
+      </c>
+      <c r="I17">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J17">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.03094</v>
+      </c>
+      <c r="O17">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P17">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q17">
+        <v>0.06449568822666667</v>
+      </c>
+      <c r="R17">
+        <v>0.58046119404</v>
+      </c>
+      <c r="S17">
+        <v>0.0013452453363698</v>
+      </c>
+      <c r="T17">
+        <v>0.0013452453363698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.253622</v>
+      </c>
+      <c r="H18">
+        <v>18.760866</v>
+      </c>
+      <c r="I18">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J18">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.346137</v>
+      </c>
+      <c r="N18">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P18">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q18">
+        <v>14.671853958214</v>
+      </c>
+      <c r="R18">
+        <v>132.046685623926</v>
+      </c>
+      <c r="S18">
+        <v>0.3060242266711022</v>
+      </c>
+      <c r="T18">
+        <v>0.3060242266711022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.253622</v>
+      </c>
+      <c r="H19">
+        <v>18.760866</v>
+      </c>
+      <c r="I19">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J19">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.724207</v>
+      </c>
+      <c r="O19">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P19">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q19">
+        <v>1.509638942584667</v>
+      </c>
+      <c r="R19">
+        <v>13.586750483262</v>
+      </c>
+      <c r="S19">
+        <v>0.0314879149746724</v>
+      </c>
+      <c r="T19">
+        <v>0.0314879149746724</v>
       </c>
     </row>
   </sheetData>
